--- a/biology/Botanique/François_Dorieux/François_Dorieux.xlsx
+++ b/biology/Botanique/François_Dorieux/François_Dorieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Dorieux</t>
+          <t>François_Dorieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Dorieux, né le 22 février 1955 à Roanne et mort le 11 janvier 2015[1] à Roanne, est un rosiériste obtenteur français dont les pépinières sont à Montagny (département de la Loire).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Dorieux, né le 22 février 1955 à Roanne et mort le 11 janvier 2015 à Roanne, est un rosiériste obtenteur français dont les pépinières sont à Montagny (département de la Loire).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Dorieux</t>
+          <t>François_Dorieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son grand-père, François Dorieux, a fondé la pépinière en 1930. Il est devenu rosiériste en 1940 et sa première obtention, un rosier grimpant rouge très parfumé date de 1954. Il meurt d'un cancer en 2015.
 Son fils Jean, puis ses petits-fils, ont pris sa suite comme « artisans des roses ». Son petit-fils François Dorieux est un obtenteur de roses parfumées aux teintes originales.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Dorieux</t>
+          <t>François_Dorieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Obtentions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Annapurna' en 2000
 'Artiste' en 1984
